--- a/papyrus.teszt/excel/asd.xlsx
+++ b/papyrus.teszt/excel/asd.xlsx
@@ -11,15 +11,18 @@
     <sheet name="Enumerációk" r:id="rId5" sheetId="3"/>
     <sheet name="Interfészek" r:id="rId6" sheetId="4"/>
     <sheet name="Osztályok" r:id="rId7" sheetId="5"/>
-    <sheet name="Interface4" r:id="rId8" sheetId="6"/>
+    <sheet name="ChildInterface" r:id="rId8" sheetId="6"/>
     <sheet name="Interfaaaaac" r:id="rId9" sheetId="7"/>
     <sheet name="Interface10" r:id="rId10" sheetId="8"/>
+    <sheet name="ParentInterface" r:id="rId11" sheetId="9"/>
+    <sheet name="Class3" r:id="rId12" sheetId="10"/>
+    <sheet name="Paaaarent" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="127">
   <si>
     <t>XmiId</t>
   </si>
@@ -195,7 +198,7 @@
     <t>_5Nvo8E1cEeyZ2YO7BIWEHg</t>
   </si>
   <si>
-    <t>Interface4</t>
+    <t>ChildInterface</t>
   </si>
   <si>
     <t>interface4</t>
@@ -261,6 +264,9 @@
     <t>public</t>
   </si>
   <si>
+    <t>ParentInterface</t>
+  </si>
+  <si>
     <t>_aHX_4FVJEeyhz6JhVJGNrA</t>
   </si>
   <si>
@@ -273,6 +279,9 @@
     <t>Interface10</t>
   </si>
   <si>
+    <t>_Es_g4FYYEeyzWIy-BpzvfQ</t>
+  </si>
+  <si>
     <t>Absztrakt</t>
   </si>
   <si>
@@ -282,13 +291,16 @@
     <t>_2aoBEE1cEeyZ2YO7BIWEHg</t>
   </si>
   <si>
-    <t>n</t>
+    <t>nem</t>
+  </si>
+  <si>
+    <t>Paaaarent</t>
   </si>
   <si>
     <t>_NT5GUFVJEeyhz6JhVJGNrA</t>
   </si>
   <si>
-    <t>Paaaarent</t>
+    <t>private</t>
   </si>
   <si>
     <t>Attribútumok</t>
@@ -312,12 +324,18 @@
     <t>Property3</t>
   </si>
   <si>
-    <t>asdasasasdasdasdasdasd</t>
+    <t>_tLZz8FYZEeyzWIy-BpzvfQ</t>
+  </si>
+  <si>
+    <t>parenProp2</t>
   </si>
   <si>
     <t>Metódusok</t>
   </si>
   <si>
+    <t>Abstract</t>
+  </si>
+  <si>
     <t>Visszatérési érték</t>
   </si>
   <si>
@@ -327,13 +345,16 @@
     <t>Paraméter név</t>
   </si>
   <si>
-    <t>_-hV48FYBEeyqOsZUCUkv7w</t>
-  </si>
-  <si>
-    <t>operation1</t>
-  </si>
-  <si>
-    <t>igen</t>
+    <t>_dex_gFYYEeyzWIy-BpzvfQ</t>
+  </si>
+  <si>
+    <t>parentOperation1</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>returnParam</t>
   </si>
   <si>
     <t>param1</t>
@@ -342,25 +363,46 @@
     <t>param2</t>
   </si>
   <si>
-    <t>param3</t>
-  </si>
-  <si>
-    <t>returnParam</t>
-  </si>
-  <si>
-    <t>_CU64QFYCEeyqOsZUCUkv7w</t>
-  </si>
-  <si>
-    <t>operation2</t>
-  </si>
-  <si>
-    <t>nem</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>ewq</t>
+    <t>_I2gegFYZEeyzWIy-BpzvfQ</t>
+  </si>
+  <si>
+    <t>parentOperation2</t>
+  </si>
+  <si>
+    <t>_Gql2AFYYEeyzWIy-BpzvfQ</t>
+  </si>
+  <si>
+    <t>parentProp1</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>_74h0ME1cEeyZ2YO7BIWEHg</t>
+  </si>
+  <si>
+    <t>classProp2</t>
+  </si>
+  <si>
+    <t>_8hzasE1cEeyZ2YO7BIWEHg</t>
+  </si>
+  <si>
+    <t>classProp1</t>
+  </si>
+  <si>
+    <t>_OTPiEFYbEeyzWIy-BpzvfQ</t>
+  </si>
+  <si>
+    <t>parentClassProp</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>_QLZWgFYbEeyzWIy-BpzvfQ</t>
+  </si>
+  <si>
+    <t>parentClassOperation</t>
   </si>
 </sst>
 </file>
@@ -368,13 +410,68 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="18">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -427,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -435,6 +532,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -452,13 +560,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1152,6 +1260,328 @@
         <v>50</v>
       </c>
       <c r="C78"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.77734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.5390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.0546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.36328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.76171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.37890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="17.10546875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.76953125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="14.55859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="6.37890625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="14">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="14">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s" s="14">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s" s="14">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s" s="14">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s" s="14">
+        <v>77</v>
+      </c>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="15">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s" s="15">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s" s="15">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s" s="15">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s" s="15">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s" s="15">
+        <v>124</v>
+      </c>
+      <c r="H6" t="s" s="15">
+        <v>104</v>
+      </c>
+      <c r="I6" t="s" s="15">
+        <v>105</v>
+      </c>
+      <c r="J6" t="s" s="15">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="15">
+        <v>77</v>
+      </c>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.3828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.5390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.0546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.16796875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.76171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.37890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="17.10546875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.76953125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="14.55859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="6.37890625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="16">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="16">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s" s="16">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s" s="16">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s" s="16">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s" s="16">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s" s="16">
+        <v>77</v>
+      </c>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="17">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="17">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s" s="17">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s" s="17">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s" s="17">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s" s="17">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s" s="17">
+        <v>124</v>
+      </c>
+      <c r="H4" t="s" s="17">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s" s="17">
+        <v>105</v>
+      </c>
+      <c r="J4" t="s" s="17">
+        <v>106</v>
+      </c>
+      <c r="K4" t="s" s="17">
+        <v>77</v>
+      </c>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1167,61 +1597,61 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.19921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.2109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.58984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.16015625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.85546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="16.70703125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.55859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.62109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="10.2109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.12890625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.7421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.58984375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.16015625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="9.85546875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.70703125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="6.55859375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="6.62109375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="6.69921875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="6.7421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="N1"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1326,16 +1756,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="3">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="3">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="3">
         <v>68</v>
       </c>
-      <c r="D1"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1365,36 +1795,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="26.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.21875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.80859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.2109375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.2421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.0546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.04296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.37890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="4">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="4">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="4">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="4">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="4">
         <v>77</v>
       </c>
-      <c r="F1"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1407,7 +1837,7 @@
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
         <v>72</v>
@@ -1416,10 +1846,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -1434,10 +1864,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -1449,6 +1879,24 @@
         <v>72</v>
       </c>
       <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1465,40 +1913,40 @@
   <cols>
     <col min="1" max="1" width="26.99609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.14453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.80859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.4921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.2109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.98828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.2421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.0546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.76953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.42578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.37890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="5">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="5">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="5">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s" s="5">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s" s="5">
         <v>76</v>
       </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" t="s" s="5">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s" s="5">
         <v>77</v>
       </c>
-      <c r="H1"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -1507,13 +1955,13 @@
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>72</v>
@@ -1522,24 +1970,24 @@
     </row>
     <row r="3">
       <c r="F3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
         <v>89</v>
       </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>72</v>
@@ -1556,50 +2004,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.03125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.94140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.76953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.28515625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="15.76953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.58203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.0546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.76171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="17.10546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="15.76953125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.55859375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.37890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="6">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="6">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s" s="6">
         <v>74</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>92</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="D1" t="s" s="6">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s" s="6">
         <v>77</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>72</v>
@@ -1611,143 +2062,157 @@
         <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F3"/>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s" s="2">
+    <row r="4">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="7">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s" s="7">
         <v>74</v>
       </c>
-      <c r="D5" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="H5" t="s" s="2">
+      <c r="D6" t="s" s="7">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s" s="7">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s" s="7">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s" s="7">
+        <v>105</v>
+      </c>
+      <c r="H6" t="s" s="7">
+        <v>106</v>
+      </c>
+      <c r="I6" t="s" s="7">
         <v>77</v>
       </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7"/>
     </row>
     <row r="8">
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9">
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
       <c r="G10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10"/>
+        <v>49</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
       <c r="F11" t="s">
         <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
         <v>72</v>
       </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1756,7 +2221,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1765,55 +2230,61 @@
     <col min="1" max="1" width="13.5703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="7.0703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="4.65234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.76953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.10546875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="15.76953125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.0546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.76171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="17.10546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="15.76953125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.55859375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.37890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s" s="3">
+      <c r="A1" t="s" s="8">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="8">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s" s="8">
         <v>74</v>
       </c>
-      <c r="D1" t="s" s="3">
-        <v>92</v>
-      </c>
-      <c r="E1" t="s" s="3">
+      <c r="D1" t="s" s="8">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s" s="8">
         <v>77</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s" s="4">
-        <v>91</v>
-      </c>
-      <c r="C3" t="s" s="4">
+      <c r="A3" t="s" s="9">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s" s="9">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s" s="9">
         <v>74</v>
       </c>
-      <c r="D3" t="s" s="4">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s" s="4">
-        <v>101</v>
-      </c>
-      <c r="H3" t="s" s="4">
+      <c r="D3" t="s" s="9">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s" s="9">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s" s="9">
+        <v>104</v>
+      </c>
+      <c r="G3" t="s" s="9">
+        <v>105</v>
+      </c>
+      <c r="H3" t="s" s="9">
+        <v>106</v>
+      </c>
+      <c r="I3" t="s" s="9">
         <v>77</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="J3" s="9"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1822,7 +2293,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1831,55 +2302,260 @@
     <col min="1" max="1" width="13.5703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="7.0703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="4.65234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.76953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.10546875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="15.76953125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.0546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.76171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="17.10546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="15.76953125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.55859375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.37890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="5">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s" s="5">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s" s="5">
+      <c r="A1" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="10">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s" s="10">
         <v>74</v>
       </c>
-      <c r="D1" t="s" s="5">
-        <v>92</v>
-      </c>
-      <c r="E1" t="s" s="5">
+      <c r="D1" t="s" s="10">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s" s="10">
         <v>77</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="6">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>91</v>
-      </c>
-      <c r="C3" t="s" s="6">
+      <c r="A3" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s" s="11">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s" s="11">
         <v>74</v>
       </c>
-      <c r="D3" t="s" s="6">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s" s="6">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s" s="6">
+      <c r="D3" t="s" s="11">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s" s="11">
+        <v>104</v>
+      </c>
+      <c r="G3" t="s" s="11">
+        <v>105</v>
+      </c>
+      <c r="H3" t="s" s="11">
+        <v>106</v>
+      </c>
+      <c r="I3" t="s" s="11">
+        <v>77</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.3046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.0546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.76171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="17.10546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="15.76953125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.55859375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.37890625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="12">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="12">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s" s="12">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s" s="12">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s" s="12">
+        <v>77</v>
+      </c>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
         <v>100</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="C3" t="s">
         <v>101</v>
       </c>
-      <c r="H3" t="s" s="6">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="13">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s" s="13">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s" s="13">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s" s="13">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s" s="13">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s" s="13">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s" s="13">
+        <v>105</v>
+      </c>
+      <c r="H5" t="s" s="13">
+        <v>106</v>
+      </c>
+      <c r="I5" t="s" s="13">
         <v>77</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6"/>
+    </row>
+    <row r="7">
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
